--- a/excel 1.xlsx
+++ b/excel 1.xlsx
@@ -349,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5"/>
+  <dimension ref="E5:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -362,6 +362,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel 1.xlsx
+++ b/excel 1.xlsx
@@ -349,17 +349,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5"/>
+  <dimension ref="E5:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excel 1.xlsx
+++ b/excel 1.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>desktop</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,22 +357,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:E6"/>
+  <dimension ref="E5:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel 1.xlsx
+++ b/excel 1.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>desktop</t>
+  </si>
+  <si>
+    <t>dsesltop</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:F7"/>
+  <dimension ref="E5:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -381,6 +384,14 @@
       </c>
       <c r="F7" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel 1.xlsx
+++ b/excel 1.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>desktop</t>
   </si>
   <si>
     <t>dsesltop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 desktop </t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:F8"/>
+  <dimension ref="E5:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,6 +395,11 @@
       </c>
       <c r="F8" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excel 1.xlsx
+++ b/excel 1.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>desktop</t>
   </si>
   <si>
     <t>dsesltop</t>
+  </si>
+  <si>
+    <t>7 l</t>
+  </si>
+  <si>
+    <t>laptop</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:F8"/>
+  <dimension ref="E5:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,6 +398,14 @@
       </c>
       <c r="F8" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/excel 1.xlsx
+++ b/excel 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>desktop</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t xml:space="preserve">8 desktop </t>
+  </si>
+  <si>
+    <t>9 desktop</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:F9"/>
+  <dimension ref="E5:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,6 +403,11 @@
     <row r="9" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/excel 1.xlsx
+++ b/excel 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>desktop</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>9 desktop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desktop </t>
   </si>
 </sst>
 </file>
@@ -366,25 +369,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:F11"/>
+  <dimension ref="E5:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>4</v>
       </c>
@@ -392,7 +395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>6</v>
       </c>
@@ -400,14 +403,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/excel 1.xlsx
+++ b/excel 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>desktop</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>9 desktop</t>
+  </si>
+  <si>
+    <t>wijzigigingen in de laptop</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:F11"/>
+  <dimension ref="C5:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +411,11 @@
     <row r="11" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/excel 1.xlsx
+++ b/excel 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>desktop</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>wijzigigingen in de laptop</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -369,25 +372,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F17"/>
+  <dimension ref="C5:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>4</v>
       </c>
@@ -395,7 +398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>6</v>
       </c>
@@ -403,14 +406,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
